--- a/ROSATOM/final/user_data.xlsx
+++ b/ROSATOM/final/user_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>imid</t>
   </si>
@@ -34,6 +34,9 @@
     <t>JdjtjvHMmtjnJa9Dse6bHqosAGjQsn9pmv</t>
   </si>
   <si>
+    <t>GPQasAPvhCMeAcFo6JdjtjvHMmtjnJa9Ds</t>
+  </si>
+  <si>
     <t>tot</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t>prohogii</t>
+  </si>
+  <si>
+    <t>jhoysbou</t>
   </si>
   <si>
     <t>admin</t>
@@ -404,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,10 +435,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -443,10 +449,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -457,10 +463,24 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ROSATOM/final/user_data.xlsx
+++ b/ROSATOM/final/user_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>imid</t>
   </si>
@@ -37,6 +37,12 @@
     <t>GPQasAPvhCMeAcFo6JdjtjvHMmtjnJa9Ds</t>
   </si>
   <si>
+    <t>DYhw228P4FQG76RBctEdvKSetaN2fESBYj</t>
+  </si>
+  <si>
+    <t>7fDnYtH6EDx7kqDtmDYhw228P4FQG76RBc</t>
+  </si>
+  <si>
     <t>tot</t>
   </si>
   <si>
@@ -47,6 +53,12 @@
   </si>
   <si>
     <t>jhoysbou</t>
+  </si>
+  <si>
+    <t>Jhoysbou</t>
+  </si>
+  <si>
+    <t>feDOS</t>
   </si>
   <si>
     <t>admin</t>
@@ -410,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,10 +447,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,10 +461,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,10 +475,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -477,10 +489,38 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ROSATOM/final/user_data.xlsx
+++ b/ROSATOM/final/user_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20342"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totam\GIT\atomasha\ROSATOM\final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DBC6B2-1C59-4BA5-8C54-2F7252D72136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>imid</t>
   </si>
@@ -65,13 +71,31 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>atomid</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>CTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,28 +143,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,9 +222,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,9 +256,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,9 +308,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,14 +501,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +520,20 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -453,7 +547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -467,7 +561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -481,7 +575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -494,8 +588,11 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -509,7 +606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -521,6 +618,9 @@
       </c>
       <c r="D7" t="s">
         <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/ROSATOM/final/user_data.xlsx
+++ b/ROSATOM/final/user_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totam\GIT\atomasha\ROSATOM\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Федор\Documents\GIT\atomasha\ROSATOM\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DBC6B2-1C59-4BA5-8C54-2F7252D72136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B540A0-5EC7-4F8C-BB87-367A09610FAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>imid</t>
   </si>
@@ -86,15 +86,15 @@
   </si>
   <si>
     <t>CEO</t>
-  </si>
-  <si>
-    <t>CTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -164,6 +164,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -505,12 +506,12 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -546,8 +547,20 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" s="3">
+        <v>12301</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>123456</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -560,8 +573,20 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="3">
+        <v>69442</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>123456</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -574,8 +599,20 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="3">
+        <v>123456</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>123456</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -588,11 +625,20 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
+      <c r="E5" s="3">
+        <v>654321</v>
+      </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
+      <c r="G5">
+        <v>123456</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -605,8 +651,20 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="3">
+        <v>654321</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>123456</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -619,11 +677,21 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
+      <c r="E7" s="3">
+        <v>69442</v>
+      </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>123456</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ROSATOM/final/user_data.xlsx
+++ b/ROSATOM/final/user_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Федор\Documents\GIT\atomasha\ROSATOM\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B540A0-5EC7-4F8C-BB87-367A09610FAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA4037C-D92C-4CF4-9DB2-BACA1A8F4C7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>imid</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>CEO</t>
+  </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>Руководитель отдела разработки</t>
+  </si>
+  <si>
+    <t>Руководитель отдела инноваций</t>
   </si>
 </sst>
 </file>
@@ -93,7 +102,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="000000"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -164,7 +173,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -506,7 +515,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -551,7 +560,7 @@
         <v>12301</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>123456</v>
@@ -577,7 +586,7 @@
         <v>69442</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>123456</v>
@@ -603,7 +612,7 @@
         <v>123456</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>123456</v>
@@ -681,7 +690,7 @@
         <v>69442</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>123456</v>

--- a/ROSATOM/final/user_data.xlsx
+++ b/ROSATOM/final/user_data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20342"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Федор\Documents\GIT\atomasha\ROSATOM\final\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA4037C-D92C-4CF4-9DB2-BACA1A8F4C7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>imid</t>
   </si>
@@ -31,6 +25,18 @@
     <t>role</t>
   </si>
   <si>
+    <t>atomid</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
     <t>JdjtjvHMmtjnJa9DsjJjKibes6vsGubsai</t>
   </si>
   <si>
@@ -49,6 +55,21 @@
     <t>7fDnYtH6EDx7kqDtmDYhw228P4FQG76RBc</t>
   </si>
   <si>
+    <t>bZ4uJ45GBehdk9L7GoyJLq8BjyvnsrhsjD</t>
+  </si>
+  <si>
+    <t>GPQasAPvhCMeAcFo6bZ4uJ45GBehdk9L7G</t>
+  </si>
+  <si>
+    <t>bZ4uJ45GBehdk9L7GxCNwKyCmY3mM2bLpQ</t>
+  </si>
+  <si>
+    <t>bZ4uJ45GBehdk9L7GjJjKibes6vsGubsai</t>
+  </si>
+  <si>
+    <t>bZ4uJ45GBehdk9L7Ge6bHqosAGjQsn9pmv</t>
+  </si>
+  <si>
     <t>tot</t>
   </si>
   <si>
@@ -67,44 +88,32 @@
     <t>feDOS</t>
   </si>
   <si>
+    <t>scarecrow</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>atomid</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
-    <t>state</t>
+    <t>Руководитель отдела разработки</t>
+  </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>Руководитель отдела инноваций</t>
   </si>
   <si>
     <t>CEO</t>
-  </si>
-  <si>
-    <t>CTO</t>
-  </si>
-  <si>
-    <t>Руководитель отдела разработки</t>
-  </si>
-  <si>
-    <t>Руководитель отдела инноваций</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="000000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,49 +161,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,9 +220,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,27 +254,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,27 +288,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,16 +463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,37 +480,37 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3">
+        <v>25</v>
+      </c>
+      <c r="E2">
         <v>12301</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>123456</v>
@@ -569,24 +519,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3">
+        <v>25</v>
+      </c>
+      <c r="E3">
         <v>69442</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>123456</v>
@@ -595,24 +545,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3">
+        <v>26</v>
+      </c>
+      <c r="E4">
         <v>123456</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>123456</v>
@@ -621,24 +571,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3">
+        <v>26</v>
+      </c>
+      <c r="E5">
         <v>654321</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>123456</v>
@@ -647,24 +597,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3">
+        <v>26</v>
+      </c>
+      <c r="E6">
         <v>654321</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>123456</v>
@@ -673,24 +623,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3">
+        <v>26</v>
+      </c>
+      <c r="E7">
         <v>69442</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>123456</v>
@@ -699,8 +649,77 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>